--- a/nike.xlsx
+++ b/nike.xlsx
@@ -505,49 +505,49 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Nike Dunk Low</t>
+          <t>Nike Zoom Vomero 5</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>女子運動鞋</t>
+          <t>男子運動鞋</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>849</v>
+        <v>1099</v>
       </c>
       <c r="D4" t="n">
-        <v>719</v>
+        <v>929</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1531213191990577</v>
+        <v>0.1546860782529572</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Nike G.T. Cut 3 EP</t>
+          <t>Nike Vaporfly 3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>男女皆宜籃球鞋</t>
+          <t>女子公路賽跑跑步鞋</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1499</v>
+        <v>1699</v>
       </c>
       <c r="D5" t="n">
-        <v>1199</v>
+        <v>1189</v>
       </c>
       <c r="E5" t="n">
-        <v>0.200133422281521</v>
+        <v>0.3001765744555621</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Nike Zoom Vomero 5</t>
+          <t>Nike Air Force 1 '07 LX</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -556,129 +556,129 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>999</v>
+        <v>899</v>
       </c>
       <c r="D6" t="n">
-        <v>899</v>
+        <v>759</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1001001001001001</v>
+        <v>0.1557285873192435</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Nike Air Force 1 '07 LX</t>
+          <t>Nike InfinityRN 4</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>女子運動鞋</t>
+          <t>男子公路跑步鞋</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>899</v>
+        <v>1199</v>
       </c>
       <c r="D7" t="n">
-        <v>759</v>
+        <v>959</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1557285873192435</v>
+        <v>0.2001668056713928</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>KD17 EP</t>
+          <t>Nike Zoom Vomero 5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>男子籃球鞋</t>
+          <t>女子運動鞋</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1299</v>
+        <v>999</v>
       </c>
       <c r="D8" t="n">
-        <v>1099</v>
+        <v>899</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1539645881447267</v>
+        <v>0.1001001001001001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Air Jordan Legacy 312</t>
+          <t>Nike Winflo 11</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>男子運動鞋</t>
+          <t>男子公路跑步鞋</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1099</v>
+        <v>799</v>
       </c>
       <c r="D9" t="n">
-        <v>879</v>
+        <v>679</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2001819836214741</v>
+        <v>0.1501877346683355</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Nike Air Force 1 '07 LV8 COB</t>
+          <t>Nike Journey Run</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>男子空軍一號運動鞋</t>
+          <t>女子公路跑步鞋</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>849</v>
+        <v>699</v>
       </c>
       <c r="D10" t="n">
-        <v>719</v>
+        <v>549</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1531213191990577</v>
+        <v>0.2145922746781116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Nike Dunk Low NN SE</t>
+          <t>Nike Metcon 9</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>女子運動鞋</t>
+          <t>男子訓練鞋</t>
         </is>
       </c>
       <c r="C11" t="n">
+        <v>999</v>
+      </c>
+      <c r="D11" t="n">
         <v>799</v>
       </c>
-      <c r="D11" t="n">
-        <v>679</v>
-      </c>
       <c r="E11" t="n">
-        <v>0.1501877346683355</v>
+        <v>0.2002002002002002</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Retro "CHBL"</t>
+          <t>Nike Dunk Low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>男子運動鞋</t>
+          <t>女子運動鞋</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -694,7 +694,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Nike Air Zoom G.T. Cut Academy EP</t>
+          <t>Nike G.T. Cut 3 EP</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -703,412 +703,412 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>799</v>
+        <v>1499</v>
       </c>
       <c r="D13" t="n">
-        <v>639</v>
+        <v>1199</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2002503128911139</v>
+        <v>0.200133422281521</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Nike Sportswear</t>
+          <t>Nike Air Force 1 '07 LV8 COB</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>男子T恤</t>
+          <t>男子空軍一號運動鞋</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>259</v>
+        <v>849</v>
       </c>
       <c r="D14" t="n">
-        <v>179</v>
+        <v>719</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3088803088803089</v>
+        <v>0.1531213191990577</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Nike Sportswear</t>
+          <t>Nike Dunk Low NN SE</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>男子T恤</t>
+          <t>女子運動鞋</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>259</v>
+        <v>799</v>
       </c>
       <c r="D15" t="n">
-        <v>209</v>
+        <v>679</v>
       </c>
       <c r="E15" t="n">
-        <v>0.193050193050193</v>
+        <v>0.1501877346683355</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Nike Sportswear Chill Knit</t>
+          <t>KD17 EP</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>女子T恤</t>
+          <t>男子籃球鞋</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>259</v>
+        <v>1299</v>
       </c>
       <c r="D16" t="n">
-        <v>199</v>
+        <v>1099</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2316602316602316</v>
+        <v>0.1539645881447267</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Nike Dri-FIT</t>
+          <t>Air Jordan Legacy 312</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>女子高爾夫T恤</t>
+          <t>男子運動鞋</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>499</v>
+        <v>1099</v>
       </c>
       <c r="D17" t="n">
-        <v>349</v>
+        <v>879</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3006012024048096</v>
+        <v>0.2001819836214741</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Nike Club Fleece</t>
+          <t>Nike Pro</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>男子學院風法國毛圈短褲</t>
+          <t>Dri-FIT 男子緊身短袖訓練上衣</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>399</v>
+        <v>199</v>
       </c>
       <c r="D18" t="n">
-        <v>279</v>
+        <v>169</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3007518796992481</v>
+        <v>0.1507537688442211</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Nike Sportswear Chill Terry</t>
+          <t>NikeCourt Dri-FIT</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>女子中腰法國毛圈短褲</t>
+          <t>男子網球翻領衫</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>349</v>
+        <v>269</v>
       </c>
       <c r="D19" t="n">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3438395415472779</v>
+        <v>0.1858736059479554</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Nike Sportswear Chill Terry</t>
+          <t>Nike Sportswear Chill Knit</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>女子中腰法國毛圈短褲</t>
+          <t>女子T恤</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>349</v>
+        <v>259</v>
       </c>
       <c r="D20" t="n">
-        <v>239</v>
+        <v>199</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3151862464183381</v>
+        <v>0.2316602316602316</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Nike</t>
+          <t>Nike Dri-FIT</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Dri-FIT 男子短褲</t>
+          <t>女子高爾夫T恤</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>299</v>
+        <v>499</v>
       </c>
       <c r="D21" t="n">
-        <v>239</v>
+        <v>349</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2006688963210702</v>
+        <v>0.3006012024048096</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Nike G.T. Cut 3 EP "Yang Liwei"</t>
+          <t>Nike Club Fleece</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>男女皆宜籃球鞋</t>
+          <t>男子學院風法國毛圈短褲</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1499</v>
+        <v>399</v>
       </c>
       <c r="D22" t="n">
-        <v>1349</v>
+        <v>279</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1000667111407605</v>
+        <v>0.3007518796992481</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Nike Air Force 1 '07</t>
+          <t>Nike Sportswear Chill Terry</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>男子運動鞋</t>
+          <t>女子中腰法國毛圈短褲</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>899</v>
+        <v>349</v>
       </c>
       <c r="D23" t="n">
-        <v>759</v>
+        <v>229</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1557285873192435</v>
+        <v>0.3438395415472779</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Nike Air Pegasus 2005</t>
+          <t>Nike Sportswear Chill Terry</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>男子運動鞋</t>
+          <t>女子中腰法國毛圈短褲</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>949</v>
+        <v>349</v>
       </c>
       <c r="D24" t="n">
-        <v>809</v>
+        <v>239</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1475237091675448</v>
+        <v>0.3151862464183381</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Nike Winflo 11</t>
+          <t>Nike</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>男子公路跑步鞋</t>
+          <t>Dri-FIT 男子短褲</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>799</v>
+        <v>299</v>
       </c>
       <c r="D25" t="n">
-        <v>679</v>
+        <v>239</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1501877346683355</v>
+        <v>0.2006688963210702</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Nike Air Force 1 '07 NN</t>
+          <t>Nike Zoom Vomero 5</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>女子空軍一號運動鞋</t>
+          <t>男子運動鞋</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>799</v>
+        <v>1099</v>
       </c>
       <c r="D26" t="n">
-        <v>679</v>
+        <v>929</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1501877346683355</v>
+        <v>0.1546860782529572</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Nike AF1 Shadow</t>
+          <t>Nike Dunk Low Retro "CHBL"</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>女子空軍一號運動鞋</t>
+          <t>男子運動鞋</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="D27" t="n">
-        <v>759</v>
+        <v>719</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1557285873192435</v>
+        <v>0.1531213191990577</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Nike Air Force 1 '07 LV8 ND</t>
+          <t>Nike Air Zoom G.T. Cut Academy EP</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>男子運動鞋</t>
+          <t>男女皆宜籃球鞋</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>899</v>
+        <v>799</v>
       </c>
       <c r="D28" t="n">
-        <v>759</v>
+        <v>639</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1557285873192435</v>
+        <v>0.2002503128911139</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Nike Sportswear Essential</t>
+          <t>Nike Air Pegasus 2005</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>女子短袖翻領上衣</t>
+          <t>男子運動鞋</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>299</v>
+        <v>949</v>
       </c>
       <c r="D29" t="n">
-        <v>239</v>
+        <v>809</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2006688963210702</v>
+        <v>0.1475237091675448</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Nike Sportswear Premium Essentials</t>
+          <t>Nike Dunk Low Retro SE</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>男子T恤</t>
+          <t>男子運動鞋</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>349</v>
+        <v>799</v>
       </c>
       <c r="D30" t="n">
-        <v>299</v>
+        <v>599</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1432664756446992</v>
+        <v>0.2503128911138923</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Nike Dri-FIT Primary</t>
+          <t>Nike Air Force 1 '07</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>男子訓練T恤</t>
+          <t>男子運動鞋</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>349</v>
+        <v>899</v>
       </c>
       <c r="D31" t="n">
-        <v>279</v>
+        <v>759</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2005730659025788</v>
+        <v>0.1557285873192435</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Nike Sportswear</t>
+          <t>Nike AF1 Shadow</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>男子T恤</t>
+          <t>女子空軍一號運動鞋</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>349</v>
+        <v>899</v>
       </c>
       <c r="D32" t="n">
-        <v>229</v>
+        <v>759</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3438395415472779</v>
+        <v>0.1557285873192435</v>
       </c>
     </row>
     <row r="33">
@@ -1119,49 +1119,49 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>女子梭織短褲</t>
+          <t>女子短袖翻領上衣</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>349</v>
+        <v>299</v>
       </c>
       <c r="D33" t="n">
-        <v>299</v>
+        <v>239</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1432664756446992</v>
+        <v>0.2006688963210702</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Nike Club</t>
+          <t>Nike Sportswear Premium Essentials</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>男子梭織短褲</t>
+          <t>男子T恤</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>449</v>
+        <v>349</v>
       </c>
       <c r="D34" t="n">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="E34" t="n">
-        <v>0.311804008908686</v>
+        <v>0.1432664756446992</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Nike Sportswear Chill Terry</t>
+          <t>Nike Dri-FIT Primary</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>女子中腰法國毛圈短褲</t>
+          <t>男子訓練T恤</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1177,106 +1177,106 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Nike DNA</t>
+          <t>Nike Sportswear</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Dri-FIT 男子籃球短褲</t>
+          <t>男子T恤</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>299</v>
+        <v>349</v>
       </c>
       <c r="D36" t="n">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="E36" t="n">
-        <v>0.2006688963210702</v>
+        <v>0.3438395415472779</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Nike Zoom Vomero 5</t>
+          <t>Nike Sportswear Essential</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>女子運動鞋</t>
+          <t>女子梭織短褲</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>999</v>
+        <v>349</v>
       </c>
       <c r="D37" t="n">
-        <v>899</v>
+        <v>299</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1001001001001001</v>
+        <v>0.1432664756446992</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Nike Zoom Vomero 5</t>
+          <t>Nike Club</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>男子運動鞋</t>
+          <t>男子梭織短褲</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1099</v>
+        <v>449</v>
       </c>
       <c r="D38" t="n">
-        <v>929</v>
+        <v>309</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1546860782529572</v>
+        <v>0.311804008908686</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Nike InfinityRN 4</t>
+          <t>Nike Sportswear Chill Terry</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>男子公路跑步鞋</t>
+          <t>女子中腰法國毛圈短褲</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1199</v>
+        <v>349</v>
       </c>
       <c r="D39" t="n">
-        <v>959</v>
+        <v>279</v>
       </c>
       <c r="E39" t="n">
-        <v>0.2001668056713928</v>
+        <v>0.2005730659025788</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Nike Air Pegasus 2005</t>
+          <t>Nike DNA</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>男子運動鞋</t>
+          <t>Dri-FIT 男子籃球短褲</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>949</v>
+        <v>299</v>
       </c>
       <c r="D40" t="n">
-        <v>809</v>
+        <v>239</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1475237091675448</v>
+        <v>0.2006688963210702</v>
       </c>
     </row>
   </sheetData>
